--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H2">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I2">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J2">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N2">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q2">
-        <v>10.65377711927467</v>
+        <v>50.463207379313</v>
       </c>
       <c r="R2">
-        <v>95.88399407347201</v>
+        <v>454.168866413817</v>
       </c>
       <c r="S2">
-        <v>0.03443389382359969</v>
+        <v>0.06503451908757958</v>
       </c>
       <c r="T2">
-        <v>0.0344338938235997</v>
+        <v>0.06503451908757961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H3">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I3">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J3">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N3">
         <v>0.161336</v>
       </c>
       <c r="O3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q3">
-        <v>2.980259397745778</v>
+        <v>4.012407551245333</v>
       </c>
       <c r="R3">
-        <v>26.822334579712</v>
+        <v>36.11166796120801</v>
       </c>
       <c r="S3">
-        <v>0.009632446269511406</v>
+        <v>0.005170995048277203</v>
       </c>
       <c r="T3">
-        <v>0.009632446269511407</v>
+        <v>0.005170995048277204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H4">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I4">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J4">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N4">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O4">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P4">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q4">
-        <v>11.54663945619911</v>
+        <v>27.88212397637333</v>
       </c>
       <c r="R4">
-        <v>103.919755105792</v>
+        <v>250.93911578736</v>
       </c>
       <c r="S4">
-        <v>0.03731969916423558</v>
+        <v>0.03593312074505713</v>
       </c>
       <c r="T4">
-        <v>0.0373196991642356</v>
+        <v>0.03593312074505713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H5">
         <v>1792.124268</v>
       </c>
       <c r="I5">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J5">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N5">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q5">
-        <v>114.843504716732</v>
+        <v>404.042182092428</v>
       </c>
       <c r="R5">
-        <v>1033.591542450588</v>
+        <v>3636.379638831852</v>
       </c>
       <c r="S5">
-        <v>0.3711837598509148</v>
+        <v>0.5207098471955083</v>
       </c>
       <c r="T5">
-        <v>0.3711837598509148</v>
+        <v>0.5207098471955083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
         <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J6">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N6">
         <v>0.161336</v>
       </c>
       <c r="O6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q6">
-        <v>32.12601787800533</v>
+        <v>32.12601787800534</v>
       </c>
       <c r="R6">
-        <v>289.1341609020479</v>
+        <v>289.134160902048</v>
       </c>
       <c r="S6">
-        <v>0.1038339620025404</v>
+        <v>0.04140244410527805</v>
       </c>
       <c r="T6">
-        <v>0.1038339620025405</v>
+        <v>0.04140244410527805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
         <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J7">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N7">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O7">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P7">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q7">
-        <v>124.4682076604853</v>
+        <v>223.2429288155733</v>
       </c>
       <c r="R7">
-        <v>1120.213868944368</v>
+        <v>2009.18635934016</v>
       </c>
       <c r="S7">
-        <v>0.4022916003415231</v>
+        <v>0.2877045924983223</v>
       </c>
       <c r="T7">
-        <v>0.4022916003415232</v>
+        <v>0.2877045924983223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H8">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I8">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J8">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N8">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q8">
-        <v>5.369261336413334</v>
+        <v>20.61850670994</v>
       </c>
       <c r="R8">
-        <v>48.32335202772001</v>
+        <v>185.56656038946</v>
       </c>
       <c r="S8">
-        <v>0.0173538992508793</v>
+        <v>0.02657212527348546</v>
       </c>
       <c r="T8">
-        <v>0.0173538992508793</v>
+        <v>0.02657212527348546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H9">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I9">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J9">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N9">
         <v>0.161336</v>
       </c>
       <c r="O9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q9">
-        <v>1.501982947235555</v>
+        <v>1.63940931056</v>
       </c>
       <c r="R9">
-        <v>13.51784652512</v>
+        <v>14.75468379504</v>
       </c>
       <c r="S9">
-        <v>0.004854533819409167</v>
+        <v>0.002112790716978432</v>
       </c>
       <c r="T9">
-        <v>0.004854533819409168</v>
+        <v>0.002112790716978432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H10">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I10">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J10">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N10">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O10">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P10">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q10">
-        <v>5.819243645102223</v>
+        <v>11.3922160352</v>
       </c>
       <c r="R10">
-        <v>52.37319280592001</v>
+        <v>102.5299443168</v>
       </c>
       <c r="S10">
-        <v>0.01880827950179132</v>
+        <v>0.01468173209090878</v>
       </c>
       <c r="T10">
-        <v>0.01880827950179133</v>
+        <v>0.01468173209090878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H11">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I11">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J11">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N11">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q11">
-        <v>0.03769072925566667</v>
+        <v>0.3222732167856666</v>
       </c>
       <c r="R11">
-        <v>0.339216563301</v>
+        <v>2.900458951071</v>
       </c>
       <c r="S11">
-        <v>0.0001218195720441379</v>
+        <v>0.0004153299949985946</v>
       </c>
       <c r="T11">
-        <v>0.0001218195720441379</v>
+        <v>0.0004153299949985947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H12">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I12">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J12">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N12">
         <v>0.161336</v>
       </c>
       <c r="O12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q12">
-        <v>0.01054350478844444</v>
+        <v>0.02562444116711111</v>
       </c>
       <c r="R12">
-        <v>0.09489154309599998</v>
+        <v>0.230619970504</v>
       </c>
       <c r="S12">
-        <v>3.407748447797716E-05</v>
+        <v>3.302352931443287E-05</v>
       </c>
       <c r="T12">
-        <v>3.407748447797717E-05</v>
+        <v>3.302352931443287E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H13">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I13">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J13">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N13">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O13">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P13">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q13">
-        <v>0.04084948058177778</v>
+        <v>0.1780636279644444</v>
       </c>
       <c r="R13">
-        <v>0.367645325236</v>
+        <v>1.60257265168</v>
       </c>
       <c r="S13">
-        <v>0.0001320289190729661</v>
+        <v>0.0002294797142918938</v>
       </c>
       <c r="T13">
-        <v>0.0001320289190729661</v>
+        <v>0.0002294797142918937</v>
       </c>
     </row>
   </sheetData>
